--- a/CTRX_BOM.xlsx
+++ b/CTRX_BOM.xlsx
@@ -240,9 +240,6 @@
     <t>C2, C11, C18</t>
   </si>
   <si>
-    <t>C3, C6</t>
-  </si>
-  <si>
     <t>C4, C5, C9</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>R3, R4</t>
+  </si>
+  <si>
+    <t>C3, C6, C19</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>30</v>
@@ -948,7 +948,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>37</v>
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>37</v>
@@ -976,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>30</v>
@@ -990,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
@@ -1116,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>31</v>
